--- a/mm/Алимбеков дкип-481 лр7.xlsx
+++ b/mm/Алимбеков дкип-481 лр7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Labs\mm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erzat\Desktop\Labs\mm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79D6EB2-3A37-4F2D-8910-90CE24755632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904703C-6F72-49B7-9D47-47ADC20CAA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,13 +108,11 @@
     <t>y</t>
   </si>
   <si>
-    <t>Контрольные вопросы
-1. Что называется дифференциальным уравнением.
-2. Какое дифференциальное уравнение называется дифференциальным уравнением второго
-порядка?
-3. Какая задача называется краевой задачей?
-4. Что называется граничными или краевыми условиями?
-5. В чем заключается сущность метода стрельбы?</t>
+    <t>1. Дифференциальное уравнение - это уравнение, связывающее значение некоторой неизвестной функции в определенной точке с значением ее производных различных порядков.
+2. Дифференциальным уравнением второго порядка называется уравнение, в котором старшая производная имеет второй порядок.
+3. Краевой задачей называется задача решения дифференциального уравнения с заданными условиями на границах области решения.
+4. Граничными или краевыми условиями называются дополнительные условия, которые налагаются на решение дифференциального уравнения в граничных точках области.
+5. Сущность метода стрельбы заключается в сведении краевой задачи к последовательности задач Коши с подбором начальных условий до удовлетворения граничным условиям.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,129 +197,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U23"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -638,498 +534,350 @@
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>0.61</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>0.61</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1.2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <f>1/A5</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <f>1-B5*$B$2/2</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <f>$B$2^2-2</f>
         <v>-1.96</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f>1+B5*$B$2/2</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <f>-E5/(D5+C5*F4)</f>
         <v>0.55272108843537415</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <f>-C5*G4/(D5+C5*F4)</f>
         <v>0.28528911564625847</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <f>G5+F5*H6</f>
         <v>0.59619414162965734</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1.4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <f t="shared" ref="B6:B8" si="0">1/A6</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:C8" si="1">1-B6*$B$2/2</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <f t="shared" ref="D6:D8" si="2">$B$2^2-2</f>
         <v>-1.96</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f t="shared" ref="E6:E8" si="3">1+B6*$B$2/2</f>
         <v>1.0714285714285714</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <f t="shared" ref="F6:F8" si="4">-E6/(D6+C6*F5)</f>
         <v>0.74057156675387836</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <f t="shared" ref="G6:G8" si="5">-C6*G5/(D6+C6*F5)</f>
         <v>0.18310673970504765</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <f t="shared" ref="H6:H8" si="6">G6+F6*H7</f>
         <v>0.56249893931765704</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1.6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <f t="shared" si="2"/>
         <v>-1.96</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <f t="shared" si="3"/>
         <v>1.0625</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <f t="shared" si="4"/>
         <v>0.83944703851346691</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <f t="shared" si="5"/>
         <v>0.13562506797993396</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <f t="shared" si="6"/>
         <v>0.51229647024606417</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1.8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <f t="shared" si="1"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <f t="shared" si="2"/>
         <v>-1.96</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f t="shared" si="3"/>
         <v>1.0555555555555556</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <f t="shared" si="4"/>
         <v>0.90435708243698865</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <f t="shared" si="5"/>
         <v>0.10974259701695119</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <f t="shared" si="6"/>
         <v>0.44871371865598331</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>0.37481999999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>0.37481999999999999</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
-    </row>
-    <row r="22" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="14"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:U23"/>
+    <mergeCell ref="J2:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
